--- a/trunk/Dokumen/Proposal/Project Planning/Project Plan - PM.xlsx
+++ b/trunk/Dokumen/Proposal/Project Planning/Project Plan - PM.xlsx
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>Proses Lelang</t>
-  </si>
-  <si>
-    <t>Pengumuman Lelang</t>
-  </si>
-  <si>
-    <t>Halaman Monitoring Lelang</t>
   </si>
   <si>
     <t>1.Proses registrasi</t>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>Tugas</t>
+  </si>
+  <si>
+    <t>Dashboard Auction</t>
+  </si>
+  <si>
+    <t>Nominasi Pemenang Lelang</t>
   </si>
 </sst>
 </file>
@@ -389,43 +389,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -453,18 +426,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,30 +437,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -525,6 +466,71 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,10 +829,10 @@
   <dimension ref="A2:CR47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="AS29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F3:F4"/>
+      <selection pane="bottomRight" activeCell="AS37" sqref="AS37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -840,422 +846,422 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:96">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="40"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="40"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="40"/>
-      <c r="BM2" s="40"/>
-      <c r="BN2" s="40"/>
-      <c r="BO2" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="BP2" s="43"/>
-      <c r="BQ2" s="43"/>
-      <c r="BR2" s="43"/>
-      <c r="BS2" s="43"/>
-      <c r="BT2" s="43"/>
-      <c r="BU2" s="43"/>
-      <c r="BV2" s="43"/>
-      <c r="BW2" s="43"/>
-      <c r="BX2" s="43"/>
-      <c r="BY2" s="43"/>
-      <c r="BZ2" s="43"/>
-      <c r="CA2" s="43"/>
-      <c r="CB2" s="43"/>
-      <c r="CC2" s="43"/>
-      <c r="CD2" s="43"/>
-      <c r="CE2" s="43"/>
-      <c r="CF2" s="43"/>
-      <c r="CG2" s="43"/>
-      <c r="CH2" s="43"/>
-      <c r="CI2" s="43"/>
-      <c r="CJ2" s="43"/>
-      <c r="CK2" s="43"/>
-      <c r="CL2" s="43"/>
-      <c r="CM2" s="43"/>
-      <c r="CN2" s="43"/>
-      <c r="CO2" s="43"/>
-      <c r="CP2" s="43"/>
-      <c r="CQ2" s="43"/>
-      <c r="CR2" s="44"/>
+      <c r="C2" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="48"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="48"/>
+      <c r="BB2" s="48"/>
+      <c r="BC2" s="48"/>
+      <c r="BD2" s="48"/>
+      <c r="BE2" s="48"/>
+      <c r="BF2" s="48"/>
+      <c r="BG2" s="48"/>
+      <c r="BH2" s="48"/>
+      <c r="BI2" s="48"/>
+      <c r="BJ2" s="48"/>
+      <c r="BK2" s="48"/>
+      <c r="BL2" s="48"/>
+      <c r="BM2" s="48"/>
+      <c r="BN2" s="48"/>
+      <c r="BO2" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP2" s="40"/>
+      <c r="BQ2" s="40"/>
+      <c r="BR2" s="40"/>
+      <c r="BS2" s="40"/>
+      <c r="BT2" s="40"/>
+      <c r="BU2" s="40"/>
+      <c r="BV2" s="40"/>
+      <c r="BW2" s="40"/>
+      <c r="BX2" s="40"/>
+      <c r="BY2" s="40"/>
+      <c r="BZ2" s="40"/>
+      <c r="CA2" s="40"/>
+      <c r="CB2" s="40"/>
+      <c r="CC2" s="40"/>
+      <c r="CD2" s="40"/>
+      <c r="CE2" s="40"/>
+      <c r="CF2" s="40"/>
+      <c r="CG2" s="40"/>
+      <c r="CH2" s="40"/>
+      <c r="CI2" s="40"/>
+      <c r="CJ2" s="40"/>
+      <c r="CK2" s="40"/>
+      <c r="CL2" s="40"/>
+      <c r="CM2" s="40"/>
+      <c r="CN2" s="40"/>
+      <c r="CO2" s="40"/>
+      <c r="CP2" s="40"/>
+      <c r="CQ2" s="40"/>
+      <c r="CR2" s="41"/>
     </row>
     <row r="3" spans="1:96">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="34">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="21">
         <v>1</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="22">
         <v>2</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="21">
         <v>3</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="21">
         <v>4</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="21">
         <v>5</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="21">
         <v>6</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="21">
         <v>7</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="21">
         <v>8</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="22">
         <v>9</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="21">
         <v>10</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="21">
         <v>11</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="21">
         <v>12</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="21">
         <v>13</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3" s="21">
         <v>14</v>
       </c>
-      <c r="T3" s="34">
+      <c r="T3" s="21">
         <v>15</v>
       </c>
-      <c r="U3" s="35">
+      <c r="U3" s="22">
         <v>16</v>
       </c>
-      <c r="V3" s="34">
+      <c r="V3" s="21">
         <v>17</v>
       </c>
-      <c r="W3" s="34">
+      <c r="W3" s="21">
         <v>18</v>
       </c>
-      <c r="X3" s="34">
+      <c r="X3" s="21">
         <v>19</v>
       </c>
-      <c r="Y3" s="34">
+      <c r="Y3" s="21">
         <v>20</v>
       </c>
-      <c r="Z3" s="34">
+      <c r="Z3" s="21">
         <v>21</v>
       </c>
-      <c r="AA3" s="34">
+      <c r="AA3" s="21">
         <v>22</v>
       </c>
-      <c r="AB3" s="35">
+      <c r="AB3" s="22">
         <v>23</v>
       </c>
-      <c r="AC3" s="34">
+      <c r="AC3" s="21">
         <v>24</v>
       </c>
-      <c r="AD3" s="34">
+      <c r="AD3" s="21">
         <v>25</v>
       </c>
-      <c r="AE3" s="34">
+      <c r="AE3" s="21">
         <v>26</v>
       </c>
-      <c r="AF3" s="34">
+      <c r="AF3" s="21">
         <v>27</v>
       </c>
-      <c r="AG3" s="34">
+      <c r="AG3" s="21">
         <v>28</v>
       </c>
-      <c r="AH3" s="34">
+      <c r="AH3" s="21">
         <v>29</v>
       </c>
-      <c r="AI3" s="35">
+      <c r="AI3" s="22">
         <v>30</v>
       </c>
-      <c r="AJ3" s="34">
+      <c r="AJ3" s="21">
         <v>31</v>
       </c>
-      <c r="AK3" s="34">
+      <c r="AK3" s="21">
         <v>1</v>
       </c>
-      <c r="AL3" s="34">
+      <c r="AL3" s="21">
         <v>2</v>
       </c>
-      <c r="AM3" s="34">
+      <c r="AM3" s="21">
         <v>3</v>
       </c>
-      <c r="AN3" s="34">
+      <c r="AN3" s="21">
         <v>4</v>
       </c>
-      <c r="AO3" s="34">
+      <c r="AO3" s="21">
         <v>5</v>
       </c>
-      <c r="AP3" s="35">
+      <c r="AP3" s="22">
         <v>6</v>
       </c>
-      <c r="AQ3" s="34">
+      <c r="AQ3" s="21">
         <v>7</v>
       </c>
-      <c r="AR3" s="34">
+      <c r="AR3" s="21">
         <v>8</v>
       </c>
-      <c r="AS3" s="34">
+      <c r="AS3" s="21">
         <v>9</v>
       </c>
-      <c r="AT3" s="34">
+      <c r="AT3" s="21">
         <v>10</v>
       </c>
-      <c r="AU3" s="34">
+      <c r="AU3" s="21">
         <v>11</v>
       </c>
-      <c r="AV3" s="34">
+      <c r="AV3" s="21">
         <v>12</v>
       </c>
-      <c r="AW3" s="35">
+      <c r="AW3" s="22">
         <v>13</v>
       </c>
-      <c r="AX3" s="34">
+      <c r="AX3" s="21">
         <v>14</v>
       </c>
-      <c r="AY3" s="34">
+      <c r="AY3" s="21">
         <v>15</v>
       </c>
-      <c r="AZ3" s="34">
+      <c r="AZ3" s="21">
         <v>16</v>
       </c>
-      <c r="BA3" s="34">
+      <c r="BA3" s="21">
         <v>17</v>
       </c>
-      <c r="BB3" s="34">
+      <c r="BB3" s="21">
         <v>18</v>
       </c>
-      <c r="BC3" s="34">
+      <c r="BC3" s="21">
         <v>19</v>
       </c>
-      <c r="BD3" s="35">
+      <c r="BD3" s="22">
         <v>20</v>
       </c>
-      <c r="BE3" s="34">
+      <c r="BE3" s="21">
         <v>21</v>
       </c>
-      <c r="BF3" s="34">
+      <c r="BF3" s="21">
         <v>22</v>
       </c>
-      <c r="BG3" s="34">
+      <c r="BG3" s="21">
         <v>23</v>
       </c>
-      <c r="BH3" s="34">
+      <c r="BH3" s="21">
         <v>24</v>
       </c>
-      <c r="BI3" s="34">
+      <c r="BI3" s="21">
         <v>25</v>
       </c>
-      <c r="BJ3" s="34">
+      <c r="BJ3" s="21">
         <v>26</v>
       </c>
-      <c r="BK3" s="35">
+      <c r="BK3" s="22">
         <v>27</v>
       </c>
-      <c r="BL3" s="34">
+      <c r="BL3" s="21">
         <v>28</v>
       </c>
-      <c r="BM3" s="34">
+      <c r="BM3" s="21">
         <v>29</v>
       </c>
-      <c r="BN3" s="34">
+      <c r="BN3" s="21">
         <v>30</v>
       </c>
-      <c r="BO3" s="39">
+      <c r="BO3" s="26">
         <v>1</v>
       </c>
-      <c r="BP3" s="39">
+      <c r="BP3" s="26">
         <v>2</v>
       </c>
-      <c r="BQ3" s="39">
+      <c r="BQ3" s="26">
         <v>3</v>
       </c>
-      <c r="BR3" s="42">
+      <c r="BR3" s="27">
         <v>4</v>
       </c>
-      <c r="BS3" s="39">
+      <c r="BS3" s="26">
         <v>5</v>
       </c>
-      <c r="BT3" s="39">
+      <c r="BT3" s="26">
         <v>6</v>
       </c>
-      <c r="BU3" s="39">
+      <c r="BU3" s="26">
         <v>7</v>
       </c>
-      <c r="BV3" s="39">
+      <c r="BV3" s="26">
         <v>8</v>
       </c>
-      <c r="BW3" s="39">
+      <c r="BW3" s="26">
         <v>9</v>
       </c>
-      <c r="BX3" s="39">
+      <c r="BX3" s="26">
         <v>10</v>
       </c>
-      <c r="BY3" s="39">
+      <c r="BY3" s="26">
         <v>11</v>
       </c>
-      <c r="BZ3" s="39">
+      <c r="BZ3" s="26">
         <v>12</v>
       </c>
-      <c r="CA3" s="39">
+      <c r="CA3" s="26">
         <v>13</v>
       </c>
-      <c r="CB3" s="39">
+      <c r="CB3" s="26">
         <v>14</v>
       </c>
-      <c r="CC3" s="39">
+      <c r="CC3" s="26">
         <v>15</v>
       </c>
-      <c r="CD3" s="39">
+      <c r="CD3" s="26">
         <v>16</v>
       </c>
-      <c r="CE3" s="39">
+      <c r="CE3" s="26">
         <v>17</v>
       </c>
-      <c r="CF3" s="39">
+      <c r="CF3" s="26">
         <v>18</v>
       </c>
-      <c r="CG3" s="39">
+      <c r="CG3" s="26">
         <v>19</v>
       </c>
-      <c r="CH3" s="39">
+      <c r="CH3" s="26">
         <v>20</v>
       </c>
-      <c r="CI3" s="39">
+      <c r="CI3" s="26">
         <v>21</v>
       </c>
-      <c r="CJ3" s="39">
+      <c r="CJ3" s="26">
         <v>22</v>
       </c>
-      <c r="CK3" s="39">
+      <c r="CK3" s="26">
         <v>23</v>
       </c>
-      <c r="CL3" s="39">
+      <c r="CL3" s="26">
         <v>24</v>
       </c>
-      <c r="CM3" s="39">
+      <c r="CM3" s="26">
         <v>25</v>
       </c>
-      <c r="CN3" s="39">
+      <c r="CN3" s="26">
         <v>26</v>
       </c>
-      <c r="CO3" s="39">
+      <c r="CO3" s="26">
         <v>27</v>
       </c>
-      <c r="CP3" s="39">
+      <c r="CP3" s="26">
         <v>28</v>
       </c>
-      <c r="CQ3" s="39">
+      <c r="CQ3" s="26">
         <v>29</v>
       </c>
-      <c r="CR3" s="39">
+      <c r="CR3" s="26">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:96">
-      <c r="A4" s="7">
+      <c r="A4" s="46">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="57" t="s">
-        <v>20</v>
+      <c r="E4" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1342,22 +1348,22 @@
       <c r="CR4" s="1"/>
     </row>
     <row r="5" spans="1:96" ht="30">
-      <c r="A5" s="8"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="57" t="s">
-        <v>21</v>
+      <c r="A5" s="47"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1444,22 +1450,22 @@
       <c r="CR5" s="1"/>
     </row>
     <row r="6" spans="1:96" ht="30">
-      <c r="A6" s="8"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="57" t="s">
-        <v>19</v>
+      <c r="A6" s="47"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1546,12 +1552,12 @@
       <c r="CR6" s="1"/>
     </row>
     <row r="7" spans="1:96">
-      <c r="A7" s="8"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="10" t="s">
-        <v>22</v>
+      <c r="A7" s="47"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1646,14 +1652,14 @@
       <c r="CR7" s="1"/>
     </row>
     <row r="8" spans="1:96">
-      <c r="A8" s="8"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="14" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="42" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1748,12 +1754,12 @@
       <c r="CR8" s="1"/>
     </row>
     <row r="9" spans="1:96">
-      <c r="A9" s="8"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
+      <c r="A9" s="47"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1848,12 +1854,12 @@
       <c r="CR9" s="1"/>
     </row>
     <row r="10" spans="1:96">
-      <c r="A10" s="8"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1948,14 +1954,14 @@
       <c r="CR10" s="1"/>
     </row>
     <row r="11" spans="1:96" ht="30">
-      <c r="A11" s="8"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="14" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>26</v>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -2050,44 +2056,44 @@
       <c r="CR11" s="1"/>
     </row>
     <row r="12" spans="1:96">
-      <c r="A12" s="8"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
@@ -2150,150 +2156,150 @@
       <c r="CR12" s="1"/>
     </row>
     <row r="13" spans="1:96">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="18"/>
-      <c r="AL13" s="18"/>
-      <c r="AM13" s="18"/>
-      <c r="AN13" s="18"/>
-      <c r="AO13" s="18"/>
-      <c r="AP13" s="18"/>
-      <c r="AQ13" s="18"/>
-      <c r="AR13" s="18"/>
-      <c r="AS13" s="18"/>
-      <c r="AT13" s="18"/>
-      <c r="AU13" s="18"/>
-      <c r="AV13" s="18"/>
-      <c r="AW13" s="18"/>
-      <c r="AX13" s="18"/>
-      <c r="AY13" s="18"/>
-      <c r="AZ13" s="18"/>
-      <c r="BA13" s="18"/>
-      <c r="BB13" s="18"/>
-      <c r="BC13" s="18"/>
-      <c r="BD13" s="18"/>
-      <c r="BE13" s="18"/>
-      <c r="BF13" s="18"/>
-      <c r="BG13" s="18"/>
-      <c r="BH13" s="18"/>
-      <c r="BI13" s="18"/>
-      <c r="BJ13" s="18"/>
-      <c r="BK13" s="18"/>
-      <c r="BL13" s="18"/>
-      <c r="BM13" s="18"/>
-      <c r="BN13" s="18"/>
-      <c r="BO13" s="18"/>
-      <c r="BP13" s="18"/>
-      <c r="BQ13" s="18"/>
-      <c r="BR13" s="18"/>
-      <c r="BS13" s="18"/>
-      <c r="BT13" s="18"/>
-      <c r="BU13" s="18"/>
-      <c r="BV13" s="18"/>
-      <c r="BW13" s="18"/>
-      <c r="BX13" s="18"/>
-      <c r="BY13" s="18"/>
-      <c r="BZ13" s="18"/>
-      <c r="CA13" s="18"/>
-      <c r="CB13" s="18"/>
-      <c r="CC13" s="18"/>
-      <c r="CD13" s="18"/>
-      <c r="CE13" s="18"/>
-      <c r="CF13" s="18"/>
-      <c r="CG13" s="18"/>
-      <c r="CH13" s="18"/>
-      <c r="CI13" s="18"/>
-      <c r="CJ13" s="18"/>
-      <c r="CK13" s="18"/>
-      <c r="CL13" s="18"/>
-      <c r="CM13" s="18"/>
-      <c r="CN13" s="18"/>
-      <c r="CO13" s="18"/>
-      <c r="CP13" s="18"/>
-      <c r="CQ13" s="18"/>
-      <c r="CR13" s="18"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="9"/>
+      <c r="BL13" s="9"/>
+      <c r="BM13" s="9"/>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="9"/>
+      <c r="BP13" s="9"/>
+      <c r="BQ13" s="9"/>
+      <c r="BR13" s="9"/>
+      <c r="BS13" s="9"/>
+      <c r="BT13" s="9"/>
+      <c r="BU13" s="9"/>
+      <c r="BV13" s="9"/>
+      <c r="BW13" s="9"/>
+      <c r="BX13" s="9"/>
+      <c r="BY13" s="9"/>
+      <c r="BZ13" s="9"/>
+      <c r="CA13" s="9"/>
+      <c r="CB13" s="9"/>
+      <c r="CC13" s="9"/>
+      <c r="CD13" s="9"/>
+      <c r="CE13" s="9"/>
+      <c r="CF13" s="9"/>
+      <c r="CG13" s="9"/>
+      <c r="CH13" s="9"/>
+      <c r="CI13" s="9"/>
+      <c r="CJ13" s="9"/>
+      <c r="CK13" s="9"/>
+      <c r="CL13" s="9"/>
+      <c r="CM13" s="9"/>
+      <c r="CN13" s="9"/>
+      <c r="CO13" s="9"/>
+      <c r="CP13" s="9"/>
+      <c r="CQ13" s="9"/>
+      <c r="CR13" s="9"/>
     </row>
     <row r="14" spans="1:96">
-      <c r="A14" s="7">
+      <c r="A14" s="46">
         <v>2</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
+      <c r="E14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
@@ -2356,46 +2362,46 @@
       <c r="CR14" s="1"/>
     </row>
     <row r="15" spans="1:96">
-      <c r="A15" s="8"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
@@ -2458,44 +2464,44 @@
       <c r="CR15" s="1"/>
     </row>
     <row r="16" spans="1:96" ht="30">
-      <c r="A16" s="8"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
@@ -2558,43 +2564,43 @@
       <c r="CR16" s="1"/>
     </row>
     <row r="17" spans="1:96">
-      <c r="A17" s="8"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
@@ -2657,14 +2663,14 @@
       <c r="CR17" s="1"/>
     </row>
     <row r="18" spans="1:96">
-      <c r="A18" s="8"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="14" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="42" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2675,9 +2681,9 @@
       <c r="L18" s="1"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2759,12 +2765,12 @@
       <c r="CR18" s="1"/>
     </row>
     <row r="19" spans="1:96" ht="45">
-      <c r="A19" s="8"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="29" t="s">
-        <v>40</v>
+      <c r="A19" s="47"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2775,9 +2781,9 @@
       <c r="L19" s="1"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -2858,12 +2864,12 @@
       <c r="CR19" s="1"/>
     </row>
     <row r="20" spans="1:96" ht="30">
-      <c r="A20" s="8"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="29" t="s">
-        <v>33</v>
+      <c r="A20" s="47"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2872,11 +2878,11 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="6"/>
+      <c r="Q20" s="5"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2957,12 +2963,12 @@
       <c r="CR20" s="1"/>
     </row>
     <row r="21" spans="1:96" ht="45">
-      <c r="A21" s="8"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="29" t="s">
-        <v>39</v>
+      <c r="A21" s="47"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2971,8 +2977,8 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -3057,14 +3063,14 @@
       <c r="CR21" s="1"/>
     </row>
     <row r="22" spans="1:96" ht="30">
-      <c r="A22" s="8"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="14" t="s">
+      <c r="A22" s="47"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="29" t="s">
-        <v>34</v>
+      <c r="E22" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3078,8 +3084,8 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -3159,12 +3165,12 @@
       <c r="CR22" s="1"/>
     </row>
     <row r="23" spans="1:96" ht="30">
-      <c r="A23" s="8"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="29" t="s">
-        <v>36</v>
+      <c r="A23" s="47"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3175,8 +3181,8 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -3259,12 +3265,12 @@
       <c r="CR23" s="1"/>
     </row>
     <row r="24" spans="1:96" ht="30">
-      <c r="A24" s="8"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="29" t="s">
-        <v>37</v>
+      <c r="A24" s="47"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3275,8 +3281,8 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
@@ -3359,44 +3365,44 @@
       <c r="CR24" s="1"/>
     </row>
     <row r="25" spans="1:96" ht="45">
-      <c r="A25" s="8"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
-      <c r="AH25" s="20"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="20"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
@@ -3459,145 +3465,145 @@
       <c r="CR25" s="1"/>
     </row>
     <row r="26" spans="1:96">
-      <c r="A26" s="23"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="27"/>
-      <c r="AK26" s="18"/>
-      <c r="AL26" s="18"/>
-      <c r="AM26" s="18"/>
-      <c r="AN26" s="18"/>
-      <c r="AO26" s="18"/>
-      <c r="AP26" s="18"/>
-      <c r="AQ26" s="18"/>
-      <c r="AR26" s="18"/>
-      <c r="AS26" s="18"/>
-      <c r="AT26" s="18"/>
-      <c r="AU26" s="18"/>
-      <c r="AV26" s="18"/>
-      <c r="AW26" s="18"/>
-      <c r="AX26" s="18"/>
-      <c r="AY26" s="18"/>
-      <c r="AZ26" s="18"/>
-      <c r="BA26" s="18"/>
-      <c r="BB26" s="18"/>
-      <c r="BC26" s="18"/>
-      <c r="BD26" s="18"/>
-      <c r="BE26" s="18"/>
-      <c r="BF26" s="18"/>
-      <c r="BG26" s="18"/>
-      <c r="BH26" s="18"/>
-      <c r="BI26" s="18"/>
-      <c r="BJ26" s="18"/>
-      <c r="BK26" s="18"/>
-      <c r="BL26" s="18"/>
-      <c r="BM26" s="18"/>
-      <c r="BN26" s="18"/>
-      <c r="BO26" s="18"/>
-      <c r="BP26" s="18"/>
-      <c r="BQ26" s="18"/>
-      <c r="BR26" s="18"/>
-      <c r="BS26" s="18"/>
-      <c r="BT26" s="18"/>
-      <c r="BU26" s="18"/>
-      <c r="BV26" s="18"/>
-      <c r="BW26" s="18"/>
-      <c r="BX26" s="18"/>
-      <c r="BY26" s="18"/>
-      <c r="BZ26" s="18"/>
-      <c r="CA26" s="18"/>
-      <c r="CB26" s="18"/>
-      <c r="CC26" s="18"/>
-      <c r="CD26" s="18"/>
-      <c r="CE26" s="18"/>
-      <c r="CF26" s="18"/>
-      <c r="CG26" s="18"/>
-      <c r="CH26" s="18"/>
-      <c r="CI26" s="18"/>
-      <c r="CJ26" s="18"/>
-      <c r="CK26" s="18"/>
-      <c r="CL26" s="18"/>
-      <c r="CM26" s="18"/>
-      <c r="CN26" s="18"/>
-      <c r="CO26" s="18"/>
-      <c r="CP26" s="18"/>
-      <c r="CQ26" s="18"/>
-      <c r="CR26" s="18"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9"/>
+      <c r="BF26" s="9"/>
+      <c r="BG26" s="9"/>
+      <c r="BH26" s="9"/>
+      <c r="BI26" s="9"/>
+      <c r="BJ26" s="9"/>
+      <c r="BK26" s="9"/>
+      <c r="BL26" s="9"/>
+      <c r="BM26" s="9"/>
+      <c r="BN26" s="9"/>
+      <c r="BO26" s="9"/>
+      <c r="BP26" s="9"/>
+      <c r="BQ26" s="9"/>
+      <c r="BR26" s="9"/>
+      <c r="BS26" s="9"/>
+      <c r="BT26" s="9"/>
+      <c r="BU26" s="9"/>
+      <c r="BV26" s="9"/>
+      <c r="BW26" s="9"/>
+      <c r="BX26" s="9"/>
+      <c r="BY26" s="9"/>
+      <c r="BZ26" s="9"/>
+      <c r="CA26" s="9"/>
+      <c r="CB26" s="9"/>
+      <c r="CC26" s="9"/>
+      <c r="CD26" s="9"/>
+      <c r="CE26" s="9"/>
+      <c r="CF26" s="9"/>
+      <c r="CG26" s="9"/>
+      <c r="CH26" s="9"/>
+      <c r="CI26" s="9"/>
+      <c r="CJ26" s="9"/>
+      <c r="CK26" s="9"/>
+      <c r="CL26" s="9"/>
+      <c r="CM26" s="9"/>
+      <c r="CN26" s="9"/>
+      <c r="CO26" s="9"/>
+      <c r="CP26" s="9"/>
+      <c r="CQ26" s="9"/>
+      <c r="CR26" s="9"/>
     </row>
     <row r="27" spans="1:96">
-      <c r="A27" s="9">
+      <c r="A27" s="57">
         <v>3</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="34"/>
+      <c r="D27" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
@@ -3660,9 +3666,9 @@
       <c r="CR27" s="1"/>
     </row>
     <row r="28" spans="1:96">
-      <c r="A28" s="5"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="56"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="1" t="s">
         <v>4</v>
       </c>
@@ -3760,9 +3766,9 @@
       <c r="CR28" s="1"/>
     </row>
     <row r="29" spans="1:96">
-      <c r="A29" s="5"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="56"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
@@ -3860,13 +3866,13 @@
       <c r="CR29" s="1"/>
     </row>
     <row r="30" spans="1:96">
-      <c r="A30" s="5">
+      <c r="A30" s="38">
         <v>4</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="56"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
@@ -3893,9 +3899,9 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="38"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
@@ -3964,9 +3970,9 @@
       <c r="CR30" s="1"/>
     </row>
     <row r="31" spans="1:96">
-      <c r="A31" s="5"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="56"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="1" t="s">
         <v>4</v>
       </c>
@@ -4064,9 +4070,9 @@
       <c r="CR31" s="1"/>
     </row>
     <row r="32" spans="1:96">
-      <c r="A32" s="5"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="56"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="1" t="s">
         <v>5</v>
       </c>
@@ -4164,13 +4170,13 @@
       <c r="CR32" s="1"/>
     </row>
     <row r="33" spans="1:96">
-      <c r="A33" s="5">
+      <c r="A33" s="38">
         <v>5</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="56"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
@@ -4268,9 +4274,9 @@
       <c r="CR33" s="1"/>
     </row>
     <row r="34" spans="1:96">
-      <c r="A34" s="5"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="56"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="1" t="s">
         <v>4</v>
       </c>
@@ -4368,9 +4374,9 @@
       <c r="CR34" s="1"/>
     </row>
     <row r="35" spans="1:96">
-      <c r="A35" s="5"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="56"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="1" t="s">
         <v>5</v>
       </c>
@@ -4468,13 +4474,13 @@
       <c r="CR35" s="1"/>
     </row>
     <row r="36" spans="1:96">
-      <c r="A36" s="5">
+      <c r="A36" s="46">
         <v>6</v>
       </c>
-      <c r="B36" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="56"/>
+      <c r="B36" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="35"/>
       <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
@@ -4512,9 +4518,9 @@
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
       <c r="AP36" s="2"/>
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
@@ -4572,9 +4578,9 @@
       <c r="CR36" s="1"/>
     </row>
     <row r="37" spans="1:96">
-      <c r="A37" s="5"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="56"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
@@ -4612,42 +4618,42 @@
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
       <c r="AR37" s="3"/>
       <c r="AS37" s="3"/>
       <c r="AT37" s="3"/>
-      <c r="AU37" s="1"/>
-      <c r="AV37" s="1"/>
-      <c r="AW37" s="1"/>
-      <c r="AX37" s="1"/>
-      <c r="AY37" s="1"/>
-      <c r="AZ37" s="1"/>
-      <c r="BA37" s="1"/>
-      <c r="BB37" s="1"/>
-      <c r="BC37" s="1"/>
-      <c r="BD37" s="1"/>
-      <c r="BE37" s="1"/>
-      <c r="BF37" s="1"/>
-      <c r="BG37" s="1"/>
-      <c r="BH37" s="1"/>
-      <c r="BI37" s="1"/>
-      <c r="BJ37" s="1"/>
-      <c r="BK37" s="1"/>
-      <c r="BL37" s="1"/>
-      <c r="BM37" s="1"/>
-      <c r="BN37" s="1"/>
-      <c r="BO37" s="1"/>
-      <c r="BP37" s="1"/>
-      <c r="BQ37" s="1"/>
-      <c r="BR37" s="1"/>
-      <c r="BS37" s="1"/>
-      <c r="BT37" s="1"/>
-      <c r="BU37" s="1"/>
-      <c r="BV37" s="1"/>
+      <c r="AU37" s="5"/>
+      <c r="AV37" s="5"/>
+      <c r="AW37" s="5"/>
+      <c r="AX37" s="5"/>
+      <c r="AY37" s="5"/>
+      <c r="AZ37" s="5"/>
+      <c r="BA37" s="5"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="5"/>
+      <c r="BE37" s="5"/>
+      <c r="BF37" s="5"/>
+      <c r="BG37" s="5"/>
+      <c r="BH37" s="5"/>
+      <c r="BI37" s="5"/>
+      <c r="BJ37" s="5"/>
+      <c r="BK37" s="5"/>
+      <c r="BL37" s="5"/>
+      <c r="BM37" s="5"/>
+      <c r="BN37" s="5"/>
+      <c r="BO37" s="5"/>
+      <c r="BP37" s="5"/>
+      <c r="BQ37" s="5"/>
+      <c r="BR37" s="5"/>
+      <c r="BS37" s="5"/>
+      <c r="BT37" s="5"/>
+      <c r="BU37" s="5"/>
+      <c r="BV37" s="5"/>
       <c r="BW37" s="1"/>
       <c r="BX37" s="1"/>
       <c r="BY37" s="1"/>
@@ -4672,9 +4678,9 @@
       <c r="CR37" s="1"/>
     </row>
     <row r="38" spans="1:96">
-      <c r="A38" s="5"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="56"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4712,42 +4718,42 @@
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
       <c r="AT38" s="4"/>
       <c r="AU38" s="4"/>
       <c r="AV38" s="4"/>
       <c r="AW38" s="4"/>
-      <c r="AX38" s="1"/>
-      <c r="AY38" s="1"/>
-      <c r="AZ38" s="1"/>
-      <c r="BA38" s="1"/>
-      <c r="BB38" s="1"/>
-      <c r="BC38" s="1"/>
-      <c r="BD38" s="1"/>
-      <c r="BE38" s="1"/>
-      <c r="BF38" s="1"/>
-      <c r="BG38" s="1"/>
-      <c r="BH38" s="1"/>
-      <c r="BI38" s="1"/>
-      <c r="BJ38" s="1"/>
-      <c r="BK38" s="1"/>
-      <c r="BL38" s="1"/>
-      <c r="BM38" s="1"/>
-      <c r="BN38" s="1"/>
-      <c r="BO38" s="1"/>
-      <c r="BP38" s="1"/>
-      <c r="BQ38" s="1"/>
-      <c r="BR38" s="1"/>
-      <c r="BS38" s="1"/>
-      <c r="BT38" s="1"/>
-      <c r="BU38" s="1"/>
-      <c r="BV38" s="1"/>
+      <c r="AX38" s="5"/>
+      <c r="AY38" s="5"/>
+      <c r="AZ38" s="5"/>
+      <c r="BA38" s="5"/>
+      <c r="BB38" s="5"/>
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="5"/>
+      <c r="BE38" s="5"/>
+      <c r="BF38" s="5"/>
+      <c r="BG38" s="5"/>
+      <c r="BH38" s="5"/>
+      <c r="BI38" s="5"/>
+      <c r="BJ38" s="5"/>
+      <c r="BK38" s="5"/>
+      <c r="BL38" s="5"/>
+      <c r="BM38" s="5"/>
+      <c r="BN38" s="5"/>
+      <c r="BO38" s="5"/>
+      <c r="BP38" s="5"/>
+      <c r="BQ38" s="5"/>
+      <c r="BR38" s="5"/>
+      <c r="BS38" s="5"/>
+      <c r="BT38" s="5"/>
+      <c r="BU38" s="5"/>
+      <c r="BV38" s="5"/>
       <c r="BW38" s="1"/>
       <c r="BX38" s="1"/>
       <c r="BY38" s="1"/>
@@ -4771,14 +4777,14 @@
       <c r="CQ38" s="1"/>
       <c r="CR38" s="1"/>
     </row>
-    <row r="39" spans="1:96">
-      <c r="A39" s="5">
-        <v>7</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="56"/>
+    <row r="39" spans="1:96" ht="15" customHeight="1">
+      <c r="A39" s="46">
+        <v>6</v>
+      </c>
+      <c r="B39" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="35"/>
       <c r="D39" s="1" t="s">
         <v>3</v>
       </c>
@@ -4816,42 +4822,42 @@
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
-      <c r="AM39" s="1"/>
-      <c r="AN39" s="1"/>
-      <c r="AO39" s="1"/>
-      <c r="AP39" s="1"/>
-      <c r="AQ39" s="1"/>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1"/>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="1"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
       <c r="AW39" s="2"/>
       <c r="AX39" s="2"/>
       <c r="AY39" s="2"/>
-      <c r="AZ39" s="1"/>
-      <c r="BA39" s="1"/>
-      <c r="BB39" s="1"/>
-      <c r="BC39" s="1"/>
-      <c r="BD39" s="1"/>
-      <c r="BE39" s="1"/>
-      <c r="BF39" s="1"/>
-      <c r="BG39" s="1"/>
-      <c r="BH39" s="1"/>
-      <c r="BI39" s="1"/>
-      <c r="BJ39" s="1"/>
-      <c r="BK39" s="1"/>
-      <c r="BL39" s="1"/>
-      <c r="BM39" s="1"/>
-      <c r="BN39" s="1"/>
-      <c r="BO39" s="1"/>
-      <c r="BP39" s="1"/>
-      <c r="BQ39" s="1"/>
-      <c r="BR39" s="1"/>
-      <c r="BS39" s="1"/>
-      <c r="BT39" s="1"/>
-      <c r="BU39" s="1"/>
-      <c r="BV39" s="1"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
+      <c r="BK39" s="5"/>
+      <c r="BL39" s="5"/>
+      <c r="BM39" s="5"/>
+      <c r="BN39" s="5"/>
+      <c r="BO39" s="5"/>
+      <c r="BP39" s="5"/>
+      <c r="BQ39" s="5"/>
+      <c r="BR39" s="5"/>
+      <c r="BS39" s="5"/>
+      <c r="BT39" s="5"/>
+      <c r="BU39" s="5"/>
+      <c r="BV39" s="5"/>
       <c r="BW39" s="1"/>
       <c r="BX39" s="1"/>
       <c r="BY39" s="1"/>
@@ -4876,9 +4882,9 @@
       <c r="CR39" s="1"/>
     </row>
     <row r="40" spans="1:96">
-      <c r="A40" s="5"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="56"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="1" t="s">
         <v>4</v>
       </c>
@@ -4916,42 +4922,42 @@
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
-      <c r="AN40" s="1"/>
-      <c r="AO40" s="1"/>
-      <c r="AP40" s="1"/>
-      <c r="AQ40" s="1"/>
-      <c r="AR40" s="1"/>
-      <c r="AS40" s="1"/>
-      <c r="AT40" s="1"/>
-      <c r="AU40" s="1"/>
-      <c r="AV40" s="1"/>
-      <c r="AW40" s="1"/>
-      <c r="AX40" s="1"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
       <c r="AY40" s="3"/>
       <c r="AZ40" s="3"/>
       <c r="BA40" s="3"/>
-      <c r="BB40" s="1"/>
-      <c r="BC40" s="1"/>
-      <c r="BD40" s="1"/>
-      <c r="BE40" s="1"/>
-      <c r="BF40" s="1"/>
-      <c r="BG40" s="1"/>
-      <c r="BH40" s="1"/>
-      <c r="BI40" s="1"/>
-      <c r="BJ40" s="1"/>
-      <c r="BK40" s="1"/>
-      <c r="BL40" s="1"/>
-      <c r="BM40" s="1"/>
-      <c r="BN40" s="1"/>
-      <c r="BO40" s="1"/>
-      <c r="BP40" s="1"/>
-      <c r="BQ40" s="1"/>
-      <c r="BR40" s="1"/>
-      <c r="BS40" s="1"/>
-      <c r="BT40" s="1"/>
-      <c r="BU40" s="1"/>
-      <c r="BV40" s="1"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
+      <c r="BK40" s="5"/>
+      <c r="BL40" s="5"/>
+      <c r="BM40" s="5"/>
+      <c r="BN40" s="5"/>
+      <c r="BO40" s="5"/>
+      <c r="BP40" s="5"/>
+      <c r="BQ40" s="5"/>
+      <c r="BR40" s="5"/>
+      <c r="BS40" s="5"/>
+      <c r="BT40" s="5"/>
+      <c r="BU40" s="5"/>
+      <c r="BV40" s="5"/>
       <c r="BW40" s="1"/>
       <c r="BX40" s="1"/>
       <c r="BY40" s="1"/>
@@ -4976,9 +4982,9 @@
       <c r="CR40" s="1"/>
     </row>
     <row r="41" spans="1:96">
-      <c r="A41" s="5"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="56"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
@@ -5016,42 +5022,42 @@
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
-      <c r="AN41" s="1"/>
-      <c r="AO41" s="1"/>
-      <c r="AP41" s="1"/>
-      <c r="AQ41" s="1"/>
-      <c r="AR41" s="1"/>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1"/>
-      <c r="AU41" s="1"/>
-      <c r="AV41" s="1"/>
-      <c r="AW41" s="1"/>
-      <c r="AX41" s="1"/>
-      <c r="AY41" s="1"/>
-      <c r="AZ41" s="1"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
       <c r="BA41" s="4"/>
       <c r="BB41" s="4"/>
       <c r="BC41" s="4"/>
       <c r="BD41" s="4"/>
-      <c r="BE41" s="1"/>
-      <c r="BF41" s="1"/>
-      <c r="BG41" s="1"/>
-      <c r="BH41" s="1"/>
-      <c r="BI41" s="1"/>
-      <c r="BJ41" s="1"/>
-      <c r="BK41" s="1"/>
-      <c r="BL41" s="1"/>
-      <c r="BM41" s="1"/>
-      <c r="BN41" s="1"/>
-      <c r="BO41" s="1"/>
-      <c r="BP41" s="1"/>
-      <c r="BQ41" s="1"/>
-      <c r="BR41" s="1"/>
-      <c r="BS41" s="1"/>
-      <c r="BT41" s="1"/>
-      <c r="BU41" s="1"/>
-      <c r="BV41" s="1"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
+      <c r="BK41" s="5"/>
+      <c r="BL41" s="5"/>
+      <c r="BM41" s="5"/>
+      <c r="BN41" s="5"/>
+      <c r="BO41" s="5"/>
+      <c r="BP41" s="5"/>
+      <c r="BQ41" s="5"/>
+      <c r="BR41" s="5"/>
+      <c r="BS41" s="5"/>
+      <c r="BT41" s="5"/>
+      <c r="BU41" s="5"/>
+      <c r="BV41" s="5"/>
       <c r="BW41" s="1"/>
       <c r="BX41" s="1"/>
       <c r="BY41" s="1"/>
@@ -5076,13 +5082,13 @@
       <c r="CR41" s="1"/>
     </row>
     <row r="42" spans="1:96">
-      <c r="A42" s="5">
+      <c r="A42" s="38">
         <v>8</v>
       </c>
-      <c r="B42" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="29"/>
+      <c r="B42" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="20"/>
       <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
@@ -5120,42 +5126,42 @@
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="1"/>
-      <c r="AO42" s="1"/>
-      <c r="AP42" s="1"/>
-      <c r="AQ42" s="1"/>
-      <c r="AR42" s="1"/>
-      <c r="AS42" s="1"/>
-      <c r="AT42" s="1"/>
-      <c r="AU42" s="1"/>
-      <c r="AV42" s="1"/>
-      <c r="AW42" s="1"/>
-      <c r="AX42" s="1"/>
-      <c r="AY42" s="1"/>
-      <c r="AZ42" s="1"/>
-      <c r="BA42" s="1"/>
-      <c r="BB42" s="1"/>
-      <c r="BC42" s="1"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="5"/>
+      <c r="AV42" s="5"/>
+      <c r="AW42" s="5"/>
+      <c r="AX42" s="5"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="5"/>
+      <c r="BA42" s="5"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
       <c r="BD42" s="2"/>
       <c r="BE42" s="2"/>
       <c r="BF42" s="2"/>
-      <c r="BG42" s="1"/>
-      <c r="BH42" s="1"/>
-      <c r="BI42" s="1"/>
-      <c r="BJ42" s="1"/>
-      <c r="BK42" s="1"/>
-      <c r="BL42" s="1"/>
-      <c r="BM42" s="1"/>
-      <c r="BN42" s="1"/>
-      <c r="BO42" s="1"/>
-      <c r="BP42" s="1"/>
-      <c r="BQ42" s="1"/>
-      <c r="BR42" s="1"/>
-      <c r="BS42" s="1"/>
-      <c r="BT42" s="1"/>
-      <c r="BU42" s="1"/>
-      <c r="BV42" s="1"/>
+      <c r="BG42" s="5"/>
+      <c r="BH42" s="5"/>
+      <c r="BI42" s="5"/>
+      <c r="BJ42" s="5"/>
+      <c r="BK42" s="5"/>
+      <c r="BL42" s="5"/>
+      <c r="BM42" s="5"/>
+      <c r="BN42" s="5"/>
+      <c r="BO42" s="5"/>
+      <c r="BP42" s="5"/>
+      <c r="BQ42" s="5"/>
+      <c r="BR42" s="5"/>
+      <c r="BS42" s="5"/>
+      <c r="BT42" s="5"/>
+      <c r="BU42" s="5"/>
+      <c r="BV42" s="5"/>
       <c r="BW42" s="1"/>
       <c r="BX42" s="1"/>
       <c r="BY42" s="1"/>
@@ -5180,9 +5186,9 @@
       <c r="CR42" s="1"/>
     </row>
     <row r="43" spans="1:96">
-      <c r="A43" s="5"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="1" t="s">
         <v>4</v>
       </c>
@@ -5220,42 +5226,42 @@
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
-      <c r="AM43" s="1"/>
-      <c r="AN43" s="1"/>
-      <c r="AO43" s="1"/>
-      <c r="AP43" s="1"/>
-      <c r="AQ43" s="1"/>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1"/>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="1"/>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1"/>
-      <c r="AY43" s="1"/>
-      <c r="AZ43" s="1"/>
-      <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
-      <c r="BC43" s="1"/>
-      <c r="BD43" s="1"/>
-      <c r="BE43" s="1"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="5"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
       <c r="BF43" s="3"/>
       <c r="BG43" s="3"/>
       <c r="BH43" s="3"/>
-      <c r="BI43" s="1"/>
-      <c r="BJ43" s="1"/>
-      <c r="BK43" s="1"/>
-      <c r="BL43" s="1"/>
-      <c r="BM43" s="1"/>
-      <c r="BN43" s="1"/>
-      <c r="BO43" s="1"/>
-      <c r="BP43" s="1"/>
-      <c r="BQ43" s="1"/>
-      <c r="BR43" s="1"/>
-      <c r="BS43" s="1"/>
-      <c r="BT43" s="1"/>
-      <c r="BU43" s="1"/>
-      <c r="BV43" s="1"/>
+      <c r="BI43" s="5"/>
+      <c r="BJ43" s="5"/>
+      <c r="BK43" s="5"/>
+      <c r="BL43" s="5"/>
+      <c r="BM43" s="5"/>
+      <c r="BN43" s="5"/>
+      <c r="BO43" s="5"/>
+      <c r="BP43" s="5"/>
+      <c r="BQ43" s="5"/>
+      <c r="BR43" s="5"/>
+      <c r="BS43" s="5"/>
+      <c r="BT43" s="5"/>
+      <c r="BU43" s="5"/>
+      <c r="BV43" s="5"/>
       <c r="BW43" s="1"/>
       <c r="BX43" s="1"/>
       <c r="BY43" s="1"/>
@@ -5280,9 +5286,9 @@
       <c r="CR43" s="1"/>
     </row>
     <row r="44" spans="1:96">
-      <c r="A44" s="5"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="1" t="s">
         <v>5</v>
       </c>
@@ -5320,42 +5326,42 @@
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
-      <c r="AM44" s="1"/>
-      <c r="AN44" s="1"/>
-      <c r="AO44" s="1"/>
-      <c r="AP44" s="1"/>
-      <c r="AQ44" s="1"/>
-      <c r="AR44" s="1"/>
-      <c r="AS44" s="1"/>
-      <c r="AT44" s="1"/>
-      <c r="AU44" s="1"/>
-      <c r="AV44" s="1"/>
-      <c r="AW44" s="1"/>
-      <c r="AX44" s="1"/>
-      <c r="AY44" s="1"/>
-      <c r="AZ44" s="1"/>
-      <c r="BA44" s="1"/>
-      <c r="BB44" s="1"/>
-      <c r="BC44" s="1"/>
-      <c r="BD44" s="1"/>
-      <c r="BE44" s="1"/>
-      <c r="BF44" s="1"/>
-      <c r="BG44" s="1"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
       <c r="BH44" s="4"/>
       <c r="BI44" s="4"/>
       <c r="BJ44" s="4"/>
       <c r="BK44" s="4"/>
-      <c r="BL44" s="1"/>
-      <c r="BM44" s="1"/>
-      <c r="BN44" s="1"/>
-      <c r="BO44" s="1"/>
-      <c r="BP44" s="1"/>
-      <c r="BQ44" s="1"/>
-      <c r="BR44" s="1"/>
-      <c r="BS44" s="1"/>
-      <c r="BT44" s="1"/>
-      <c r="BU44" s="1"/>
-      <c r="BV44" s="1"/>
+      <c r="BL44" s="5"/>
+      <c r="BM44" s="5"/>
+      <c r="BN44" s="5"/>
+      <c r="BO44" s="5"/>
+      <c r="BP44" s="5"/>
+      <c r="BQ44" s="5"/>
+      <c r="BR44" s="5"/>
+      <c r="BS44" s="5"/>
+      <c r="BT44" s="5"/>
+      <c r="BU44" s="5"/>
+      <c r="BV44" s="5"/>
       <c r="BW44" s="1"/>
       <c r="BX44" s="1"/>
       <c r="BY44" s="1"/>
@@ -5380,13 +5386,13 @@
       <c r="CR44" s="1"/>
     </row>
     <row r="45" spans="1:96">
-      <c r="A45" s="5">
+      <c r="A45" s="38">
         <v>9</v>
       </c>
-      <c r="B45" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="29"/>
+      <c r="B45" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="20"/>
       <c r="D45" s="1" t="s">
         <v>3</v>
       </c>
@@ -5424,42 +5430,42 @@
       <c r="AJ45" s="1"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1"/>
-      <c r="AM45" s="1"/>
-      <c r="AN45" s="1"/>
-      <c r="AO45" s="1"/>
-      <c r="AP45" s="1"/>
-      <c r="AQ45" s="1"/>
-      <c r="AR45" s="1"/>
-      <c r="AS45" s="1"/>
-      <c r="AT45" s="1"/>
-      <c r="AU45" s="1"/>
-      <c r="AV45" s="1"/>
-      <c r="AW45" s="1"/>
-      <c r="AX45" s="1"/>
-      <c r="AY45" s="1"/>
-      <c r="AZ45" s="1"/>
-      <c r="BA45" s="1"/>
-      <c r="BB45" s="1"/>
-      <c r="BC45" s="1"/>
-      <c r="BD45" s="1"/>
-      <c r="BE45" s="1"/>
-      <c r="BF45" s="1"/>
-      <c r="BG45" s="1"/>
-      <c r="BH45" s="1"/>
-      <c r="BI45" s="1"/>
-      <c r="BJ45" s="1"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
+      <c r="BF45" s="5"/>
+      <c r="BG45" s="5"/>
+      <c r="BH45" s="5"/>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
       <c r="BK45" s="2"/>
       <c r="BL45" s="2"/>
       <c r="BM45" s="2"/>
-      <c r="BN45" s="1"/>
-      <c r="BO45" s="1"/>
-      <c r="BP45" s="1"/>
-      <c r="BQ45" s="1"/>
-      <c r="BR45" s="1"/>
-      <c r="BS45" s="1"/>
-      <c r="BT45" s="1"/>
-      <c r="BU45" s="1"/>
-      <c r="BV45" s="1"/>
+      <c r="BN45" s="5"/>
+      <c r="BO45" s="5"/>
+      <c r="BP45" s="5"/>
+      <c r="BQ45" s="5"/>
+      <c r="BR45" s="5"/>
+      <c r="BS45" s="5"/>
+      <c r="BT45" s="5"/>
+      <c r="BU45" s="5"/>
+      <c r="BV45" s="5"/>
       <c r="BW45" s="1"/>
       <c r="BX45" s="1"/>
       <c r="BY45" s="1"/>
@@ -5484,9 +5490,9 @@
       <c r="CR45" s="1"/>
     </row>
     <row r="46" spans="1:96">
-      <c r="A46" s="5"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="29"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="1" t="s">
         <v>4</v>
       </c>
@@ -5524,42 +5530,42 @@
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
-      <c r="AM46" s="1"/>
-      <c r="AN46" s="1"/>
-      <c r="AO46" s="1"/>
-      <c r="AP46" s="1"/>
-      <c r="AQ46" s="1"/>
-      <c r="AR46" s="1"/>
-      <c r="AS46" s="1"/>
-      <c r="AT46" s="1"/>
-      <c r="AU46" s="1"/>
-      <c r="AV46" s="1"/>
-      <c r="AW46" s="1"/>
-      <c r="AX46" s="1"/>
-      <c r="AY46" s="1"/>
-      <c r="AZ46" s="1"/>
-      <c r="BA46" s="1"/>
-      <c r="BB46" s="1"/>
-      <c r="BC46" s="1"/>
-      <c r="BD46" s="1"/>
-      <c r="BE46" s="1"/>
-      <c r="BF46" s="1"/>
-      <c r="BG46" s="1"/>
-      <c r="BH46" s="1"/>
-      <c r="BI46" s="1"/>
-      <c r="BJ46" s="1"/>
-      <c r="BK46" s="1"/>
-      <c r="BL46" s="1"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+      <c r="AS46" s="5"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="5"/>
+      <c r="AX46" s="5"/>
+      <c r="AY46" s="5"/>
+      <c r="AZ46" s="5"/>
+      <c r="BA46" s="5"/>
+      <c r="BB46" s="5"/>
+      <c r="BC46" s="5"/>
+      <c r="BD46" s="5"/>
+      <c r="BE46" s="5"/>
+      <c r="BF46" s="5"/>
+      <c r="BG46" s="5"/>
+      <c r="BH46" s="5"/>
+      <c r="BI46" s="5"/>
+      <c r="BJ46" s="5"/>
+      <c r="BK46" s="5"/>
+      <c r="BL46" s="5"/>
       <c r="BM46" s="3"/>
       <c r="BN46" s="3"/>
       <c r="BO46" s="3"/>
-      <c r="BP46" s="1"/>
-      <c r="BQ46" s="1"/>
-      <c r="BR46" s="1"/>
-      <c r="BS46" s="1"/>
-      <c r="BT46" s="1"/>
-      <c r="BU46" s="1"/>
-      <c r="BV46" s="1"/>
+      <c r="BP46" s="5"/>
+      <c r="BQ46" s="5"/>
+      <c r="BR46" s="5"/>
+      <c r="BS46" s="5"/>
+      <c r="BT46" s="5"/>
+      <c r="BU46" s="5"/>
+      <c r="BV46" s="5"/>
       <c r="BW46" s="1"/>
       <c r="BX46" s="1"/>
       <c r="BY46" s="1"/>
@@ -5584,9 +5590,9 @@
       <c r="CR46" s="1"/>
     </row>
     <row r="47" spans="1:96">
-      <c r="A47" s="5"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="29"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="1" t="s">
         <v>5</v>
       </c>
@@ -5624,42 +5630,42 @@
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
-      <c r="AM47" s="1"/>
-      <c r="AN47" s="1"/>
-      <c r="AO47" s="1"/>
-      <c r="AP47" s="1"/>
-      <c r="AQ47" s="1"/>
-      <c r="AR47" s="1"/>
-      <c r="AS47" s="1"/>
-      <c r="AT47" s="1"/>
-      <c r="AU47" s="1"/>
-      <c r="AV47" s="1"/>
-      <c r="AW47" s="1"/>
-      <c r="AX47" s="1"/>
-      <c r="AY47" s="1"/>
-      <c r="AZ47" s="1"/>
-      <c r="BA47" s="1"/>
-      <c r="BB47" s="1"/>
-      <c r="BC47" s="1"/>
-      <c r="BD47" s="1"/>
-      <c r="BE47" s="1"/>
-      <c r="BF47" s="1"/>
-      <c r="BG47" s="1"/>
-      <c r="BH47" s="1"/>
-      <c r="BI47" s="1"/>
-      <c r="BJ47" s="1"/>
-      <c r="BK47" s="1"/>
-      <c r="BL47" s="1"/>
-      <c r="BM47" s="1"/>
-      <c r="BN47" s="1"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="5"/>
+      <c r="AS47" s="5"/>
+      <c r="AT47" s="5"/>
+      <c r="AU47" s="5"/>
+      <c r="AV47" s="5"/>
+      <c r="AW47" s="5"/>
+      <c r="AX47" s="5"/>
+      <c r="AY47" s="5"/>
+      <c r="AZ47" s="5"/>
+      <c r="BA47" s="5"/>
+      <c r="BB47" s="5"/>
+      <c r="BC47" s="5"/>
+      <c r="BD47" s="5"/>
+      <c r="BE47" s="5"/>
+      <c r="BF47" s="5"/>
+      <c r="BG47" s="5"/>
+      <c r="BH47" s="5"/>
+      <c r="BI47" s="5"/>
+      <c r="BJ47" s="5"/>
+      <c r="BK47" s="5"/>
+      <c r="BL47" s="5"/>
+      <c r="BM47" s="5"/>
+      <c r="BN47" s="5"/>
       <c r="BO47" s="4"/>
       <c r="BP47" s="4"/>
       <c r="BQ47" s="4"/>
       <c r="BR47" s="4"/>
-      <c r="BS47" s="1"/>
-      <c r="BT47" s="1"/>
-      <c r="BU47" s="1"/>
-      <c r="BV47" s="1"/>
+      <c r="BS47" s="5"/>
+      <c r="BT47" s="5"/>
+      <c r="BU47" s="5"/>
+      <c r="BV47" s="5"/>
       <c r="BW47" s="1"/>
       <c r="BX47" s="1"/>
       <c r="BY47" s="1"/>
@@ -5685,6 +5691,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="BO2:CR2"/>
@@ -5701,22 +5723,6 @@
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="F2:AJ2"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A39:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
